--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_21.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_4_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>456830.9748324609</v>
+        <v>494719.3051009844</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.934248445</v>
+        <v>492028.9342484455</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7939248.852610351</v>
+        <v>7964501.379684195</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>199.3212564146514</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>226.0623721660696</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -826,13 +826,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>8.353195292827836</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -877,10 +877,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>48.63648077402511</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>70.23861833638023</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>185.3223949641452</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>116.0434079398612</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1102,13 +1102,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1117,7 +1117,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>72.97737231389902</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>57.22553770080315</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.77389691395845</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.9938213379494</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>137.8834167598887</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>384.0290916886104</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>90.97964783089149</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1610,7 +1610,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>163.9521757218088</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>32.67077719907106</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170492</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>89.05336748755462</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1895,13 +1895,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>206.4855017772222</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>90.9796478308901</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
@@ -2014,7 +2014,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170467</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>33.08339867820137</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>348.0223489661745</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2251,10 +2251,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170469</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361651</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>136.0564930766998</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170471</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5.990622819019281</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>159.0870598415709</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3202,10 +3202,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225785</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3424,22 +3424,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3481,13 +3481,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>231.6604091503378</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>212.1244644296954</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>162.9070982917627</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3670,16 +3670,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>82.64119670415005</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>133.9986524434722</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -4037,7 +4037,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430777</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4141,19 +4141,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>119.863446390054</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>3.139541480023122</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.4212598210011</v>
+        <v>1784.801716624816</v>
       </c>
       <c r="C2" t="n">
-        <v>810.3191910448285</v>
+        <v>1346.65924380824</v>
       </c>
       <c r="D2" t="n">
-        <v>778.4498102596771</v>
+        <v>910.749458982684</v>
       </c>
       <c r="E2" t="n">
-        <v>748.7154694583763</v>
+        <v>476.9747141409792</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>49.10728455018699</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>49.10728455018699</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.10728455018699</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018699</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031049</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311669</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311669</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311669</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1092.064618311669</v>
       </c>
       <c r="O2" t="n">
-        <v>1294.102365436318</v>
+        <v>1132.008730489134</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1739.711376797698</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756292</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509349</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509349</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>2455.364227509349</v>
       </c>
       <c r="U2" t="n">
-        <v>1477.116202953456</v>
+        <v>2455.364227509349</v>
       </c>
       <c r="V2" t="n">
-        <v>1477.116202953456</v>
+        <v>2455.364227509349</v>
       </c>
       <c r="W2" t="n">
-        <v>1072.260748364489</v>
+        <v>2454.549176960787</v>
       </c>
       <c r="X2" t="n">
-        <v>870.9261459254474</v>
+        <v>2439.447117580502</v>
       </c>
       <c r="Y2" t="n">
-        <v>866.6804262655048</v>
+        <v>2211.101287109724</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414798</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781221</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246753</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.611864851629</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677906</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397451</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018699</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064459</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768569</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985421</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985421</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985421</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985421</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.435329302581</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.712964807981</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031422</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420221</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212429</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>466.6771853775295</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>466.6771853775295</v>
+        <v>955.6037336452933</v>
       </c>
       <c r="D4" t="n">
-        <v>300.7991925790521</v>
+        <v>789.7257408468161</v>
       </c>
       <c r="E4" t="n">
-        <v>131.0411888297894</v>
+        <v>619.9677370975533</v>
       </c>
       <c r="F4" t="n">
-        <v>131.0411888297894</v>
+        <v>443.2606830593095</v>
       </c>
       <c r="G4" t="n">
-        <v>131.0411888297894</v>
+        <v>277.6694080851371</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755117</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018699</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018699</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>323.8657391213226</v>
       </c>
       <c r="L4" t="n">
-        <v>452.1535503695694</v>
+        <v>742.0756208892835</v>
       </c>
       <c r="M4" t="n">
-        <v>872.2064493144727</v>
+        <v>1201.559488070196</v>
       </c>
       <c r="N4" t="n">
-        <v>1292.259348259376</v>
+        <v>1643.818291227841</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2063.487540453623</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2410.994434423965</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509349</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214721</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214721</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>2433.946406214721</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>2155.513405467826</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>1868.557897338257</v>
       </c>
       <c r="W4" t="n">
-        <v>885.9154747824084</v>
+        <v>1596.531492924549</v>
       </c>
       <c r="X4" t="n">
-        <v>885.9154747824084</v>
+        <v>1547.403734566947</v>
       </c>
       <c r="Y4" t="n">
-        <v>658.4958040965166</v>
+        <v>1319.984063881056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.8932738874814</v>
+        <v>1674.602188492498</v>
       </c>
       <c r="C5" t="n">
-        <v>119.7912051113087</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D5" t="n">
-        <v>87.92182432615731</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E5" t="n">
-        <v>58.18748352485655</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>34.36045797446834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>437.0247332457074</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>857.0776321906106</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L5" t="n">
-        <v>857.0776321906106</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M5" t="n">
-        <v>857.0776321906106</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N5" t="n">
-        <v>857.0776321906106</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
-        <v>1277.130531135514</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1626.23533075074</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1367.013028067757</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1004.396078001584</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>599.5406234126169</v>
+        <v>2120.249538017633</v>
       </c>
       <c r="X5" t="n">
-        <v>584.4385640323317</v>
+        <v>2105.147478637348</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.1524403319851</v>
+        <v>2100.901758977405</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623.8308893488454</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="C7" t="n">
-        <v>623.8308893488454</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9528965503681</v>
+        <v>741.4772326516122</v>
       </c>
       <c r="E7" t="n">
-        <v>288.1948928011053</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1675.765608785789</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1675.765608785789</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1388.81010065622</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W7" t="n">
-        <v>1116.783696242511</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1043.069178753724</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y7" t="n">
-        <v>815.6495080678326</v>
+        <v>933.2958513705994</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.174776892337</v>
+        <v>2190.493479979994</v>
       </c>
       <c r="C8" t="n">
-        <v>1358.032304075761</v>
+        <v>1752.351007163417</v>
       </c>
       <c r="D8" t="n">
-        <v>1300.228730640606</v>
+        <v>1316.441222337862</v>
       </c>
       <c r="E8" t="n">
-        <v>866.4539857989009</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F8" t="n">
-        <v>438.5865562081087</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>37.18872483137262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>37.18872483137262</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>36.77193545851263</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>36.77193545851263</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>491.8246367576064</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>491.8246367576064</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743871</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873481</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172575</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925631</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925631</v>
+        <v>2636.955880053692</v>
       </c>
       <c r="W8" t="n">
-        <v>1837.781722377069</v>
+        <v>2636.140829505129</v>
       </c>
       <c r="X8" t="n">
-        <v>1822.679662996783</v>
+        <v>2621.038770124844</v>
       </c>
       <c r="Y8" t="n">
-        <v>1818.433943336841</v>
+        <v>2616.793050464902</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897023</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>209.3336469752877</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="C10" t="n">
-        <v>36.77193545851263</v>
+        <v>933.2958513705998</v>
       </c>
       <c r="D10" t="n">
-        <v>36.77193545851263</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>36.77193545851263</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>36.77193545851263</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>36.77193545851263</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851263</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232025</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943381</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>398.1100751943381</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>629.1618265718637</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1071.420629729508</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1491.08987895529</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1838.596772925631</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1817.178951631003</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1657.937582929</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1657.937582929</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1379.504582182105</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1092.549074052535</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>820.522669638827</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>575.1309149722395</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>347.7112442863477</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2523.375184062125</v>
+        <v>2472.724095295526</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419993</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F11" t="n">
-        <v>787.6807519874951</v>
+        <v>787.2639626146349</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397518</v>
+        <v>96.73597668111512</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111512</v>
       </c>
       <c r="J11" t="n">
-        <v>96.73597668111519</v>
+        <v>531.990664134033</v>
       </c>
       <c r="K11" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>931.0862686392932</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M11" t="n">
-        <v>1186.925458503959</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940406</v>
+        <v>2481.810506693458</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510713</v>
+        <v>3461.990173263765</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344109</v>
+        <v>4290.30004809716</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302703</v>
+        <v>4836.798834055756</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055756</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>4753.146960239593</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112635</v>
+        <v>4753.146960239593</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429652</v>
+        <v>4493.924657556609</v>
       </c>
       <c r="V11" t="n">
-        <v>4181.958796257035</v>
+        <v>4131.307707490436</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.103341668068</v>
+        <v>3726.452252901469</v>
       </c>
       <c r="X11" t="n">
-        <v>3357.960878247379</v>
+        <v>3307.30978948078</v>
       </c>
       <c r="Y11" t="n">
-        <v>2949.674754547033</v>
+        <v>2899.023665780433</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>602.9077216724079</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>496.4512605090502</v>
       </c>
       <c r="D12" t="n">
         <v>401.3609716556035</v>
@@ -5109,13 +5109,13 @@
         <v>223.8567185987188</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>138.4716288649026</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111512</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>122.7996498415727</v>
       </c>
       <c r="J12" t="n">
         <v>447.3579748077851</v>
@@ -5127,13 +5127,13 @@
         <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O12" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5160,10 +5160,10 @@
         <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>850.6974019729503</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>724.211622752171</v>
       </c>
     </row>
     <row r="13">
@@ -5188,25 +5188,25 @@
         <v>121.3250519959684</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111512</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111512</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111512</v>
       </c>
       <c r="J13" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>458.0741164169405</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2523.375184062125</v>
+        <v>2252.656868168566</v>
       </c>
       <c r="C14" t="n">
-        <v>2085.232711245548</v>
+        <v>1814.51439535199</v>
       </c>
       <c r="D14" t="n">
-        <v>1649.322926419993</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E14" t="n">
-        <v>1215.548181578288</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
-        <v>787.6807519874956</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>531.9906641340331</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>1607.050630386892</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M14" t="n">
-        <v>1607.050630386892</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="N14" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O14" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T14" t="n">
-        <v>4803.798049006192</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U14" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.85743042965</v>
       </c>
       <c r="V14" t="n">
-        <v>4181.958796257035</v>
+        <v>3911.240480363476</v>
       </c>
       <c r="W14" t="n">
-        <v>3777.103341668068</v>
+        <v>3506.38502577451</v>
       </c>
       <c r="X14" t="n">
-        <v>3357.960878247379</v>
+        <v>3087.242562353821</v>
       </c>
       <c r="Y14" t="n">
-        <v>2949.674754547033</v>
+        <v>2678.956438653474</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.2298140987272</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="C16" t="n">
-        <v>633.6681025819521</v>
+        <v>1003.232425776222</v>
       </c>
       <c r="D16" t="n">
-        <v>467.7901097834749</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E16" t="n">
-        <v>298.0321060342121</v>
+        <v>667.5964292284816</v>
       </c>
       <c r="F16" t="n">
-        <v>121.3250519959684</v>
+        <v>490.8893751902378</v>
       </c>
       <c r="G16" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>96.73597668111516</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
@@ -5440,10 +5440,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849017</v>
+        <v>876.2839981849016</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365815</v>
+        <v>1335.767865365814</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5470,16 +5470,16 @@
         <v>2029.841770713472</v>
       </c>
       <c r="V16" t="n">
-        <v>1742.886262583902</v>
+        <v>1939.888874261396</v>
       </c>
       <c r="W16" t="n">
-        <v>1470.859858170194</v>
+        <v>1667.862469847688</v>
       </c>
       <c r="X16" t="n">
-        <v>1225.468103503606</v>
+        <v>1422.470715181101</v>
       </c>
       <c r="Y16" t="n">
-        <v>998.0484328177142</v>
+        <v>1195.051044495209</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2523.375184062124</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>2085.232711245547</v>
       </c>
       <c r="D17" t="n">
         <v>1649.322926419992</v>
@@ -5501,40 +5501,40 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>787.6807519874949</v>
       </c>
       <c r="G17" t="n">
-        <v>386.282920610759</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397526</v>
+        <v>97.15276605397516</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111516</v>
       </c>
       <c r="J17" t="n">
-        <v>531.9906641340331</v>
+        <v>257.6948668632257</v>
       </c>
       <c r="K17" t="n">
-        <v>1366.340956092211</v>
+        <v>1092.045158821404</v>
       </c>
       <c r="L17" t="n">
-        <v>2441.40092234507</v>
+        <v>2167.105125074263</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.40092234507</v>
+        <v>2167.105125074263</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.40092234507</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="O17" t="n">
-        <v>3421.580588915377</v>
+        <v>3292.83610851071</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.890463748773</v>
+        <v>4121.145983344106</v>
       </c>
       <c r="Q17" t="n">
-        <v>4796.389249707368</v>
+        <v>4667.644769302701</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055758</v>
@@ -5543,10 +5543,10 @@
         <v>4753.146960239595</v>
       </c>
       <c r="T17" t="n">
-        <v>4544.575746323208</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U17" t="n">
-        <v>4544.575746323208</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V17" t="n">
         <v>4181.958796257035</v>
@@ -5558,7 +5558,7 @@
         <v>3357.960878247379</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547033</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>806.2298140987274</v>
+        <v>947.2320137580463</v>
       </c>
       <c r="C19" t="n">
-        <v>633.6681025819523</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D19" t="n">
-        <v>467.790109783475</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E19" t="n">
-        <v>298.0321060342122</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F19" t="n">
-        <v>121.3250519959684</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G19" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
         <v>96.73597668111516</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2554.154217881911</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T19" t="n">
-        <v>2308.274771460367</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U19" t="n">
-        <v>2029.841770713472</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V19" t="n">
-        <v>1742.886262583902</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W19" t="n">
-        <v>1470.859858170194</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X19" t="n">
-        <v>1225.468103503606</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y19" t="n">
-        <v>998.0484328177145</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="20">
@@ -5741,52 +5741,52 @@
         <v>787.2639626146351</v>
       </c>
       <c r="G20" t="n">
-        <v>385.866131237899</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111529</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111516</v>
       </c>
       <c r="J20" t="n">
-        <v>96.73597668111516</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>931.0862686392932</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2006.146234892153</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2312.656441940404</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940404</v>
+        <v>2481.810506693461</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.83610851071</v>
+        <v>3461.990173263767</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344106</v>
+        <v>4290.300048097163</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302701</v>
+        <v>4836.798834055758</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055758</v>
       </c>
       <c r="S20" t="n">
-        <v>4836.798834055758</v>
+        <v>4753.146960239595</v>
       </c>
       <c r="T20" t="n">
-        <v>4803.381259633332</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="U20" t="n">
-        <v>4544.158956950349</v>
+        <v>4533.079733112633</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.542006884175</v>
+        <v>4181.542006884174</v>
       </c>
       <c r="W20" t="n">
         <v>3776.686552295208</v>
@@ -5795,7 +5795,7 @@
         <v>3357.544088874519</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.257965174173</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="21">
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>806.2298140987273</v>
+        <v>965.4711828007303</v>
       </c>
       <c r="C22" t="n">
-        <v>633.6681025819522</v>
+        <v>792.9094712839557</v>
       </c>
       <c r="D22" t="n">
-        <v>467.790109783475</v>
+        <v>627.0314784854784</v>
       </c>
       <c r="E22" t="n">
-        <v>298.0321060342122</v>
+        <v>457.2734747362156</v>
       </c>
       <c r="F22" t="n">
-        <v>121.3250519959684</v>
+        <v>280.5664206979718</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111516</v>
+        <v>114.9751457237994</v>
       </c>
       <c r="H22" t="n">
         <v>96.73597668111516</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2554.154217881911</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T22" t="n">
-        <v>2308.274771460366</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U22" t="n">
-        <v>2029.841770713471</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V22" t="n">
-        <v>1742.886262583902</v>
+        <v>1902.127631285905</v>
       </c>
       <c r="W22" t="n">
-        <v>1470.859858170194</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X22" t="n">
-        <v>1225.468103503606</v>
+        <v>1384.709472205609</v>
       </c>
       <c r="Y22" t="n">
-        <v>998.0484328177145</v>
+        <v>1157.289801519717</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883918</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731394</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238766</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856328</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>970.9960463903951</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>798.4343348736201</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324585</v>
+        <v>632.5563420751428</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>462.79833832588</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>286.0912842876361</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461862</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6461,16 +6461,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883918</v>
+        <v>1098.710185817962</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716167</v>
+        <v>926.1484743011869</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731394</v>
+        <v>760.2704815027096</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238767</v>
+        <v>590.5124777534468</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856329</v>
+        <v>413.805423715203</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>248.2141487410306</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>108.3119744314052</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6631,7 +6631,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
         <v>2203.220781338905</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.92045017358</v>
       </c>
       <c r="S31" t="n">
         <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.799635050032</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173567</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.992967093271</v>
+        <v>1517.948475222841</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1290.528804536949</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>842.8792965674086</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303137</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759859</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6923,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>842.8792965674086</v>
+        <v>864.7097725347917</v>
       </c>
       <c r="C37" t="n">
-        <v>842.8792965674086</v>
+        <v>692.1480610180166</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7126,19 +7126,19 @@
         <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1801.366221019966</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759859</v>
+        <v>1529.339816606258</v>
       </c>
       <c r="X37" t="n">
-        <v>1262.117585972288</v>
+        <v>1283.94806193967</v>
       </c>
       <c r="Y37" t="n">
-        <v>1034.697915286396</v>
+        <v>1056.528391253779</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7184,40 +7184,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>839.0206718702449</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C40" t="n">
-        <v>666.4589603534698</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>500.5809675549925</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>330.8229638057298</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7333,7 +7333,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7409,31 +7409,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
         <v>5029.390139722817</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.659051657336</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C43" t="n">
-        <v>920.0973401405613</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>754.2193473420841</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>584.4613435928213</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
         <v>407.7542895545774</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2451.623182457407</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V43" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W43" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X43" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.477670376324</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7655,37 +7655,37 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
@@ -7786,19 +7786,19 @@
         <v>617.7751448769889</v>
       </c>
       <c r="D46" t="n">
-        <v>451.8971520785116</v>
+        <v>451.8971520785115</v>
       </c>
       <c r="E46" t="n">
-        <v>330.8229638057298</v>
+        <v>282.1391483292488</v>
       </c>
       <c r="F46" t="n">
-        <v>330.8229638057298</v>
+        <v>105.432094291005</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773375</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>40.3475880580454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773375</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773373</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854521</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>239.122532279504</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>44.8179728135201</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>407.152590549595</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8380,10 +8380,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>35.25505765581499</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8453,28 +8453,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866472</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,10 +8614,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>233.3856074520461</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>258.4234241057235</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196806868</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,16 +8927,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N14" t="n">
-        <v>712.7331429833466</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>162.5847375576874</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9173,10 +9173,10 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807095</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>309.6062697457082</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11303,22 +11303,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>565.8642197954478</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>49.73195639980048</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>268.0111327346202</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>267.5985112554918</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>185.1957776566207</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>195.0325855607192</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23783,13 +23783,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>11.38105307846953</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>268.0111327346216</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>184.7831561774904</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>10.96843159933724</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142718</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>69.7165723808141</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>81.78272691405212</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30.81337269022628</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25369,13 +25369,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>52.425543897936</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>30.81337269022629</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>26.99333424003456</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>88.19489769745726</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25831,16 +25831,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25925,7 +25925,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>-6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>48.19697732171615</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7958207444075</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>681309.0532471552</v>
+        <v>689084.4653685051</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>681309.0532471552</v>
+        <v>691286.2548932891</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>682759.297072649</v>
+        <v>691286.2548932891</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670845.583093222</v>
+        <v>670845.5830932216</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670845.5830932219</v>
+        <v>670845.5830932216</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>670845.5830932218</v>
+        <v>670845.5830932219</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670845.5830932216</v>
+        <v>670845.5830932218</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>699156.0332870967</v>
+        <v>699156.0332870968</v>
       </c>
     </row>
     <row r="15">
@@ -26314,13 +26314,13 @@
         <v>281477.3429424645</v>
       </c>
       <c r="C2" t="n">
-        <v>281477.3429424644</v>
+        <v>281477.3429424646</v>
       </c>
       <c r="D2" t="n">
-        <v>281477.3429424644</v>
+        <v>281477.3429424645</v>
       </c>
       <c r="E2" t="n">
-        <v>265400.0464351302</v>
+        <v>265400.0464351301</v>
       </c>
       <c r="F2" t="n">
         <v>265400.0464351301</v>
@@ -26347,13 +26347,13 @@
         <v>276600.2316721099</v>
       </c>
       <c r="N2" t="n">
-        <v>276600.23167211</v>
+        <v>276600.2316721099</v>
       </c>
       <c r="O2" t="n">
         <v>276600.2316721099</v>
       </c>
       <c r="P2" t="n">
-        <v>276600.23167211</v>
+        <v>276600.2316721099</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039039</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390569</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520279</v>
+        <v>161735.0752101142</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283958</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856141</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784437</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104681</v>
+        <v>134989.9446130033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193696.6796511644</v>
+        <v>158092.3824742618</v>
       </c>
       <c r="C4" t="n">
-        <v>193696.6796511644</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="D4" t="n">
-        <v>187055.8853966619</v>
+        <v>148010.1942457891</v>
       </c>
       <c r="E4" t="n">
-        <v>52352.49019908701</v>
+        <v>52352.49019908697</v>
       </c>
       <c r="F4" t="n">
-        <v>52352.49019908699</v>
+        <v>52352.49019908698</v>
       </c>
       <c r="G4" t="n">
         <v>52352.49019908698</v>
@@ -26445,16 +26445,16 @@
         <v>54561.82510962276</v>
       </c>
       <c r="L4" t="n">
-        <v>54561.82510962276</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="M4" t="n">
         <v>54561.82510962276</v>
       </c>
       <c r="N4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962276</v>
       </c>
       <c r="O4" t="n">
-        <v>54561.82510962277</v>
+        <v>54561.82510962275</v>
       </c>
       <c r="P4" t="n">
         <v>54561.82510962276</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.1362581421</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764749</v>
       </c>
       <c r="F5" t="n">
         <v>73519.34227764752</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="N5" t="n">
         <v>77718.2386057925</v>
       </c>
-      <c r="N5" t="n">
-        <v>77718.23860579252</v>
-      </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-113835.4255056322</v>
+        <v>-153276.4322938433</v>
       </c>
       <c r="C6" t="n">
-        <v>28355.87515407764</v>
+        <v>41914.07976101204</v>
       </c>
       <c r="D6" t="n">
-        <v>21865.37992533069</v>
+        <v>59254.62413491767</v>
       </c>
       <c r="E6" t="n">
-        <v>-84271.07979363223</v>
+        <v>-22283.41980651541</v>
       </c>
       <c r="F6" t="n">
-        <v>139528.2139583956</v>
+        <v>139451.6554035987</v>
       </c>
       <c r="G6" t="n">
-        <v>139528.2139583956</v>
+        <v>139451.6554035988</v>
       </c>
       <c r="H6" t="n">
-        <v>139528.2139583955</v>
+        <v>139451.6554035987</v>
       </c>
       <c r="I6" t="n">
-        <v>125955.452323855</v>
+        <v>125932.2279844724</v>
       </c>
       <c r="J6" t="n">
-        <v>33305.70261170442</v>
+        <v>-16310.88586830212</v>
       </c>
       <c r="K6" t="n">
-        <v>144320.1679566946</v>
+        <v>130482.9350494676</v>
       </c>
       <c r="L6" t="n">
-        <v>135372.5568681851</v>
+        <v>144296.9436173119</v>
       </c>
       <c r="M6" t="n">
-        <v>-42470.8186537734</v>
+        <v>9306.999004308682</v>
       </c>
       <c r="N6" t="n">
-        <v>144320.1679566947</v>
+        <v>144296.943617312</v>
       </c>
       <c r="O6" t="n">
-        <v>144320.1679566946</v>
+        <v>144296.943617312</v>
       </c>
       <c r="P6" t="n">
-        <v>144320.1679566947</v>
+        <v>144296.943617312</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773373</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1209.199708513939</v>
       </c>
       <c r="G4" t="n">
         <v>1209.199708513939</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973051962</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.550515282532</v>
+        <v>541.684501906082</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080592</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773373</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973051962</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825318</v>
+        <v>541.684501906082</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773373</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973051962</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.684501906082</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>215.629782371831</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>178.1408902972735</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,13 +27546,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>130.1499572737014</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>194.3013563458966</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>147.6279365193115</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>215.4845050789318</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>52.01701577190894</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>169.9604648060226</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>374.3251492764967</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>223.8561827421948</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>52.90661119384782</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>26.33579611060378</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773375</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>40.3475880580454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773375</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773373</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854521</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>239.122532279504</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>44.8179728135201</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>407.152590549595</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,16 +35100,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>35.25505765581499</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,28 +35173,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="M8" t="n">
-        <v>459.6491932314078</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>270.2148169866472</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314079</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697542</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>233.3856074520461</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>258.4234241057235</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>40.81776196806868</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,16 +35647,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N14" t="n">
-        <v>712.7331429833466</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>162.5847375576874</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -35893,19 +35893,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807095</v>
+        <v>170.8626916697549</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>309.6062697457082</v>
+        <v>40.81776196807141</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697549</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,7 +36841,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -36996,13 +36996,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37950,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38023,22 +38023,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>565.8642197954478</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
